--- a/Dataset selection.xlsx
+++ b/Dataset selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dabovic jana\IML project\IML-Work1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6385D32E-007D-4B52-A870-12BDD7828F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8339DB8F-4034-45F7-BCC9-66E0CEAE1018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Dataset</t>
   </si>
@@ -208,9 +208,6 @@
   </si>
   <si>
     <t>attributes include noise</t>
-  </si>
-  <si>
-    <t>check it online</t>
   </si>
   <si>
     <t>image</t>
@@ -222,7 +219,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -263,7 +260,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -549,7 +546,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1065,10 +1062,10 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -1108,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">

--- a/Dataset selection.xlsx
+++ b/Dataset selection.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dabovic jana\IML project\IML-Work1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8339DB8F-4034-45F7-BCC9-66E0CEAE1018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B004E24A-C28B-4442-BCC8-2FAEA5E0CF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -96,9 +96,6 @@
     <t xml:space="preserve">no </t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>heart-c</t>
   </si>
   <si>
@@ -211,6 +208,9 @@
   </si>
   <si>
     <t>image</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -546,7 +546,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -562,13 +562,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -759,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
@@ -801,7 +801,7 @@
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>6</v>
@@ -816,12 +816,12 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>6</v>
@@ -836,12 +836,12 @@
         <v>14</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1">
         <v>13</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -878,7 +878,7 @@
     </row>
     <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1">
         <v>7</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
@@ -910,12 +910,12 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="1">
         <v>4</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -950,12 +950,12 @@
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -970,12 +970,12 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>8</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25" s="1">
         <v>16</v>
@@ -1030,12 +1030,12 @@
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>8</v>
@@ -1047,12 +1047,12 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -1065,12 +1065,12 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="1">
         <v>36</v>
@@ -1085,12 +1085,12 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="1">
         <v>19</v>
@@ -1105,12 +1105,12 @@
         <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1">
         <v>60</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -1145,12 +1145,12 @@
         <v>14</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -1165,12 +1165,12 @@
         <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1">
         <v>18</v>
@@ -1187,7 +1187,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -1202,12 +1202,12 @@
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1">
         <v>10</v>
@@ -1222,12 +1222,12 @@
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1">
         <v>40</v>
@@ -1242,12 +1242,12 @@
         <v>21</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1">
         <v>13</v>
@@ -1267,7 +1267,7 @@
     </row>
     <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1">
         <v>1</v>
